--- a/test/files/HQ_BFR5.xlsx
+++ b/test/files/HQ_BFR5.xlsx
@@ -8031,8 +8031,8 @@
   <dimension ref="A1:IV238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R112" sqref="R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>

--- a/test/files/HQ_BFR5.xlsx
+++ b/test/files/HQ_BFR5.xlsx
@@ -8031,8 +8031,8 @@
   <dimension ref="A1:IV238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R112" sqref="R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>

--- a/test/files/HQ_BFR5.xlsx
+++ b/test/files/HQ_BFR5.xlsx
@@ -5605,7 +5605,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>#####</t>
   </si>
 </sst>
 </file>
@@ -5935,7 +5935,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="746">
+  <cellStyleXfs count="748">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6424,6 +6424,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6982,7 +6984,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="746">
+  <cellStyles count="748">
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
@@ -7354,6 +7356,7 @@
     <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
@@ -7725,6 +7728,7 @@
     <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="55" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="126"/>
@@ -8031,8 +8035,8 @@
   <dimension ref="A1:IV238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R112" sqref="R112"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S143" sqref="S138:S155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -13407,11 +13411,11 @@
         <v>1796</v>
       </c>
       <c r="R105" s="62"/>
-      <c r="S105" s="62" t="s">
+      <c r="S105" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="T105" s="63"/>
-      <c r="U105" s="62" t="s">
+      <c r="U105" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="AJ105" s="83"/>
@@ -14072,11 +14076,11 @@
         <v>1796</v>
       </c>
       <c r="R118" s="62"/>
-      <c r="S118" s="62" t="s">
+      <c r="S118" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="T118" s="63"/>
-      <c r="U118" s="62" t="s">
+      <c r="U118" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="AJ118" s="83"/>
@@ -14630,13 +14634,13 @@
       <c r="R130" s="63" t="s">
         <v>1621</v>
       </c>
-      <c r="S130" s="62" t="s">
+      <c r="S130" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="T130" s="63" t="s">
         <v>1220</v>
       </c>
-      <c r="U130" s="62" t="s">
+      <c r="U130" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="V130" s="105" t="s">
@@ -14739,13 +14743,13 @@
       <c r="R132" s="63" t="s">
         <v>1622</v>
       </c>
-      <c r="S132" s="62" t="s">
+      <c r="S132" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="T132" s="63" t="s">
         <v>1221</v>
       </c>
-      <c r="U132" s="62" t="s">
+      <c r="U132" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="V132" s="105" t="s">
@@ -14848,13 +14852,13 @@
       <c r="R134" s="63" t="s">
         <v>1622</v>
       </c>
-      <c r="S134" s="62" t="s">
+      <c r="S134" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="T134" s="63" t="s">
         <v>1221</v>
       </c>
-      <c r="U134" s="62" t="s">
+      <c r="U134" s="66" t="s">
         <v>1797</v>
       </c>
       <c r="V134" s="105" t="s">
